--- a/R02_G3_作品ⅣWBS(スケジュール)Ver1.0.xlsx
+++ b/R02_G3_作品ⅣWBS(スケジュール)Ver1.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\NEO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\NewUnityProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BC0E0C-654A-4A9D-87E3-C2502E00A9DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4621649-1AC8-4BF7-BB0D-C70B6983758D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="113">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -1097,6 +1097,10 @@
   </si>
   <si>
     <t>sourcetree</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベルトコンベア</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2473,8 +2477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I114" sqref="I114"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I117" sqref="I117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4129,8 +4133,12 @@
         <v>24</v>
       </c>
       <c r="F115" s="12"/>
-      <c r="H115" s="57"/>
-      <c r="I115" s="63"/>
+      <c r="H115" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="I115" s="63">
+        <v>1</v>
+      </c>
     </row>
     <row r="116" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="40">
@@ -4143,8 +4151,12 @@
         <v>24</v>
       </c>
       <c r="F116" s="12"/>
-      <c r="H116" s="57"/>
-      <c r="I116" s="63"/>
+      <c r="H116" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="I116" s="63">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="40">
@@ -4157,7 +4169,9 @@
         <v>24</v>
       </c>
       <c r="F117" s="12"/>
-      <c r="H117" s="57"/>
+      <c r="H117" s="57" t="s">
+        <v>85</v>
+      </c>
       <c r="I117" s="63"/>
     </row>
     <row r="118" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -4169,7 +4183,9 @@
       <c r="D118" s="18"/>
       <c r="E118" s="19"/>
       <c r="F118" s="12"/>
-      <c r="H118" s="57"/>
+      <c r="H118" s="57" t="s">
+        <v>85</v>
+      </c>
       <c r="I118" s="63"/>
     </row>
     <row r="119" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -4181,7 +4197,9 @@
       <c r="D119" s="18"/>
       <c r="E119" s="19"/>
       <c r="F119" s="12"/>
-      <c r="H119" s="57"/>
+      <c r="H119" s="57" t="s">
+        <v>85</v>
+      </c>
       <c r="I119" s="63"/>
     </row>
     <row r="120" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -4195,7 +4213,9 @@
       <c r="D120" s="18"/>
       <c r="E120" s="19"/>
       <c r="F120" s="12"/>
-      <c r="H120" s="57"/>
+      <c r="H120" s="57" t="s">
+        <v>85</v>
+      </c>
       <c r="I120" s="63"/>
     </row>
     <row r="121" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">

--- a/R02_G3_作品ⅣWBS(スケジュール)Ver1.0.xlsx
+++ b/R02_G3_作品ⅣWBS(スケジュール)Ver1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\NewUnityProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4621649-1AC8-4BF7-BB0D-C70B6983758D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E611E65B-00F4-4FF1-AD4B-489638DC0054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="117">
   <si>
     <t>R02年度　Ｇ３　前期　制作Ⅳ　WBS(スケジュール)</t>
     <rPh sb="3" eb="5">
@@ -407,13 +407,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>未定</t>
-    <rPh sb="0" eb="2">
-      <t>ミテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲームの土台作り</t>
     <rPh sb="4" eb="6">
       <t>ドダイ</t>
@@ -1102,6 +1095,52 @@
   <si>
     <t>ベルトコンベア</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落ちる床の実装</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乗ってる時間で落ちる床の実装</t>
+    <rPh sb="0" eb="1">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミニマップの追加</t>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DESK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗なし</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1197,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1207,6 +1246,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="52">
     <border>
@@ -1896,7 +1941,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2144,6 +2189,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2477,8 +2531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I117" sqref="I117"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H156" sqref="H156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2495,38 +2549,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16"/>
@@ -2537,32 +2591,32 @@
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
       <c r="D5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="93" t="s">
+      <c r="E5" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="93"/>
+      <c r="F5" s="96"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="89" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
+      <c r="A6" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
       <c r="D6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="94" t="s">
+      <c r="E6" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="95"/>
+      <c r="F6" s="98"/>
     </row>
     <row r="8" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
@@ -3205,16 +3259,16 @@
         <v>43972</v>
       </c>
       <c r="B60" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="67" t="s">
         <v>41</v>
-      </c>
-      <c r="C60" s="67" t="s">
-        <v>42</v>
       </c>
       <c r="D60" s="18"/>
       <c r="E60" s="19"/>
       <c r="F60" s="12"/>
       <c r="H60" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I60" s="63">
         <v>1</v>
@@ -3226,13 +3280,13 @@
       </c>
       <c r="B61" s="70"/>
       <c r="C61" s="67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D61" s="18"/>
       <c r="E61" s="19"/>
       <c r="F61" s="12"/>
       <c r="H61" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I61" s="63">
         <v>1</v>
@@ -3243,14 +3297,14 @@
         <v>43974</v>
       </c>
       <c r="B62" s="70"/>
-      <c r="C62" s="96" t="s">
-        <v>43</v>
+      <c r="C62" s="99" t="s">
+        <v>42</v>
       </c>
       <c r="D62" s="18"/>
       <c r="E62" s="19"/>
       <c r="F62" s="12"/>
       <c r="H62" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I62" s="63">
         <v>0</v>
@@ -3261,12 +3315,12 @@
         <v>43975</v>
       </c>
       <c r="B63" s="70"/>
-      <c r="C63" s="97"/>
+      <c r="C63" s="100"/>
       <c r="D63" s="18"/>
       <c r="E63" s="19"/>
       <c r="F63" s="12"/>
       <c r="H63" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I63" s="63">
         <v>0</v>
@@ -3277,12 +3331,12 @@
         <v>43976</v>
       </c>
       <c r="B64" s="70"/>
-      <c r="C64" s="97"/>
+      <c r="C64" s="100"/>
       <c r="D64" s="18"/>
       <c r="E64" s="19"/>
       <c r="F64" s="12"/>
-      <c r="H64" s="91" t="s">
-        <v>90</v>
+      <c r="H64" s="94" t="s">
+        <v>89</v>
       </c>
       <c r="I64" s="63"/>
     </row>
@@ -3291,7 +3345,7 @@
         <v>43977</v>
       </c>
       <c r="B65" s="70"/>
-      <c r="C65" s="98"/>
+      <c r="C65" s="101"/>
       <c r="D65" s="20"/>
       <c r="E65" s="21"/>
       <c r="F65" s="12"/>
@@ -3304,7 +3358,7 @@
       </c>
       <c r="B66" s="71"/>
       <c r="C66" s="67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D66" s="22"/>
       <c r="E66" s="23"/>
@@ -3317,10 +3371,10 @@
         <v>43979</v>
       </c>
       <c r="B67" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C67" s="67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D67" s="22"/>
       <c r="E67" s="23"/>
@@ -3334,7 +3388,7 @@
       </c>
       <c r="B68" s="73"/>
       <c r="C68" s="81" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>17</v>
@@ -3356,7 +3410,7 @@
       <c r="E69" s="19"/>
       <c r="F69" s="12"/>
       <c r="H69" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I69" s="63"/>
     </row>
@@ -3366,13 +3420,13 @@
       </c>
       <c r="B70" s="73"/>
       <c r="C70" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D70" s="51"/>
       <c r="E70" s="52"/>
       <c r="F70" s="14"/>
       <c r="H70" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I70" s="64"/>
     </row>
@@ -3388,7 +3442,7 @@
       </c>
       <c r="F71" s="11"/>
       <c r="H71" s="75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I71" s="65"/>
     </row>
@@ -3398,7 +3452,7 @@
       </c>
       <c r="B72" s="73"/>
       <c r="C72" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D72" s="18"/>
       <c r="E72" s="23" t="s">
@@ -3414,7 +3468,7 @@
       </c>
       <c r="B73" s="74"/>
       <c r="C73" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D73" s="18"/>
       <c r="E73" s="23" t="s">
@@ -3429,10 +3483,10 @@
         <v>43986</v>
       </c>
       <c r="B74" s="72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C74" s="68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D74" s="18"/>
       <c r="E74" s="23" t="s">
@@ -3448,7 +3502,7 @@
       </c>
       <c r="B75" s="73"/>
       <c r="C75" s="67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D75" s="18"/>
       <c r="E75" s="23" t="s">
@@ -3466,13 +3520,13 @@
       </c>
       <c r="B76" s="73"/>
       <c r="C76" s="78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D76" s="18"/>
       <c r="E76" s="19"/>
       <c r="F76" s="12"/>
       <c r="H76" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I76" s="63"/>
     </row>
@@ -3486,7 +3540,7 @@
       <c r="E77" s="19"/>
       <c r="F77" s="12"/>
       <c r="H77" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I77" s="63"/>
     </row>
@@ -3496,13 +3550,13 @@
       </c>
       <c r="B78" s="73"/>
       <c r="C78" s="78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D78" s="18"/>
       <c r="E78" s="19"/>
       <c r="F78" s="12"/>
       <c r="H78" s="57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I78" s="63">
         <v>1</v>
@@ -3518,7 +3572,7 @@
       <c r="E79" s="19"/>
       <c r="F79" s="12"/>
       <c r="H79" s="57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I79" s="63">
         <v>1</v>
@@ -3530,13 +3584,13 @@
       </c>
       <c r="B80" s="73"/>
       <c r="C80" s="78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D80" s="18"/>
       <c r="E80" s="19"/>
       <c r="F80" s="12"/>
       <c r="H80" s="57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I80" s="63">
         <v>1</v>
@@ -3552,7 +3606,7 @@
       <c r="E81" s="19"/>
       <c r="F81" s="12"/>
       <c r="H81" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I81" s="63">
         <v>1</v>
@@ -3564,13 +3618,13 @@
       </c>
       <c r="B82" s="74"/>
       <c r="C82" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D82" s="18"/>
       <c r="E82" s="19"/>
       <c r="F82" s="12"/>
       <c r="H82" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I82" s="63">
         <v>1</v>
@@ -3581,16 +3635,16 @@
         <v>43995</v>
       </c>
       <c r="B83" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" s="81" t="s">
         <v>49</v>
-      </c>
-      <c r="C83" s="81" t="s">
-        <v>50</v>
       </c>
       <c r="D83" s="18"/>
       <c r="E83" s="19"/>
       <c r="F83" s="12"/>
       <c r="H83" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I83" s="63">
         <v>1</v>
@@ -3606,7 +3660,7 @@
       <c r="E84" s="19"/>
       <c r="F84" s="12"/>
       <c r="H84" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I84" s="63"/>
     </row>
@@ -3616,7 +3670,7 @@
       </c>
       <c r="B85" s="71"/>
       <c r="C85" s="67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D85" s="20" t="s">
         <v>19</v>
@@ -3626,7 +3680,7 @@
       </c>
       <c r="F85" s="12"/>
       <c r="H85" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I85" s="63">
         <v>1</v>
@@ -3637,10 +3691,10 @@
         <v>43998</v>
       </c>
       <c r="B86" s="72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D86" s="18"/>
       <c r="E86" s="23" t="s">
@@ -3648,7 +3702,7 @@
       </c>
       <c r="F86" s="12"/>
       <c r="H86" s="57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I86" s="63">
         <v>1</v>
@@ -3660,7 +3714,7 @@
       </c>
       <c r="B87" s="73"/>
       <c r="C87" s="78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D87" s="18"/>
       <c r="E87" s="23" t="s">
@@ -3668,7 +3722,7 @@
       </c>
       <c r="F87" s="12"/>
       <c r="H87" s="57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I87" s="63">
         <v>1</v>
@@ -3684,7 +3738,7 @@
       <c r="E88" s="19"/>
       <c r="F88" s="12"/>
       <c r="H88" s="57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I88" s="63">
         <v>1</v>
@@ -3700,7 +3754,7 @@
       <c r="E89" s="19"/>
       <c r="F89" s="12"/>
       <c r="H89" s="57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I89" s="63">
         <v>1</v>
@@ -3716,7 +3770,7 @@
       <c r="E90" s="19"/>
       <c r="F90" s="12"/>
       <c r="H90" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I90" s="63"/>
     </row>
@@ -3726,13 +3780,13 @@
       </c>
       <c r="B91" s="74"/>
       <c r="C91" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D91" s="18"/>
       <c r="E91" s="19"/>
       <c r="F91" s="12"/>
       <c r="H91" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I91" s="63"/>
     </row>
@@ -3741,16 +3795,16 @@
         <v>44004</v>
       </c>
       <c r="B92" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="C92" s="78" t="s">
         <v>73</v>
+      </c>
+      <c r="C92" s="83" t="s">
+        <v>72</v>
       </c>
       <c r="D92" s="18"/>
       <c r="E92" s="19"/>
       <c r="F92" s="12"/>
       <c r="H92" s="57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I92" s="63">
         <v>1</v>
@@ -3761,12 +3815,12 @@
         <v>44005</v>
       </c>
       <c r="B93" s="73"/>
-      <c r="C93" s="80"/>
+      <c r="C93" s="85"/>
       <c r="D93" s="18"/>
       <c r="E93" s="19"/>
       <c r="F93" s="12"/>
       <c r="H93" s="57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I93" s="63">
         <v>1</v>
@@ -3777,14 +3831,14 @@
         <v>44006</v>
       </c>
       <c r="B94" s="73"/>
-      <c r="C94" s="78" t="s">
-        <v>75</v>
+      <c r="C94" s="83" t="s">
+        <v>74</v>
       </c>
       <c r="D94" s="18"/>
       <c r="E94" s="19"/>
       <c r="F94" s="12"/>
       <c r="H94" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I94" s="63">
         <v>0.5</v>
@@ -3795,12 +3849,12 @@
         <v>44007</v>
       </c>
       <c r="B95" s="73"/>
-      <c r="C95" s="80"/>
+      <c r="C95" s="85"/>
       <c r="D95" s="18"/>
       <c r="E95" s="19"/>
       <c r="F95" s="12"/>
       <c r="H95" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I95" s="63">
         <v>1</v>
@@ -3812,13 +3866,13 @@
       </c>
       <c r="B96" s="74"/>
       <c r="C96" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D96" s="18"/>
       <c r="E96" s="19"/>
       <c r="F96" s="12"/>
       <c r="H96" s="57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I96" s="63">
         <v>1</v>
@@ -3829,16 +3883,16 @@
         <v>44009</v>
       </c>
       <c r="B97" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="C97" s="78" t="s">
-        <v>77</v>
+        <v>53</v>
+      </c>
+      <c r="C97" s="83" t="s">
+        <v>76</v>
       </c>
       <c r="D97" s="18"/>
       <c r="E97" s="19"/>
       <c r="F97" s="12"/>
       <c r="H97" s="57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I97" s="63">
         <v>1</v>
@@ -3849,12 +3903,12 @@
         <v>44010</v>
       </c>
       <c r="B98" s="73"/>
-      <c r="C98" s="80"/>
+      <c r="C98" s="85"/>
       <c r="D98" s="18"/>
       <c r="E98" s="19"/>
       <c r="F98" s="12"/>
       <c r="H98" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I98" s="63"/>
     </row>
@@ -3864,13 +3918,13 @@
       </c>
       <c r="B99" s="73"/>
       <c r="C99" s="78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D99" s="18"/>
       <c r="E99" s="19"/>
       <c r="F99" s="12"/>
       <c r="H99" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I99" s="63"/>
     </row>
@@ -3888,7 +3942,7 @@
       </c>
       <c r="F100" s="14"/>
       <c r="H100" s="58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I100" s="64">
         <v>1</v>
@@ -3906,7 +3960,7 @@
       </c>
       <c r="F101" s="11"/>
       <c r="H101" s="59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I101" s="65">
         <v>1</v>
@@ -3924,7 +3978,7 @@
       </c>
       <c r="F102" s="12"/>
       <c r="H102" s="57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I102" s="63">
         <v>1</v>
@@ -3935,16 +3989,16 @@
         <v>44015</v>
       </c>
       <c r="B103" s="72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C103" s="81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D103" s="18"/>
       <c r="E103" s="19"/>
       <c r="F103" s="12"/>
       <c r="H103" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I103" s="63"/>
     </row>
@@ -3958,7 +4012,7 @@
       <c r="E104" s="19"/>
       <c r="F104" s="12"/>
       <c r="H104" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I104" s="63"/>
     </row>
@@ -3967,14 +4021,14 @@
         <v>44017</v>
       </c>
       <c r="B105" s="73"/>
-      <c r="C105" s="78" t="s">
-        <v>51</v>
+      <c r="C105" s="83" t="s">
+        <v>50</v>
       </c>
       <c r="D105" s="18"/>
       <c r="E105" s="19"/>
       <c r="F105" s="12"/>
       <c r="H105" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I105" s="63"/>
     </row>
@@ -3983,12 +4037,12 @@
         <v>44018</v>
       </c>
       <c r="B106" s="73"/>
-      <c r="C106" s="79"/>
+      <c r="C106" s="84"/>
       <c r="D106" s="18"/>
       <c r="E106" s="19"/>
       <c r="F106" s="12"/>
       <c r="H106" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I106" s="63"/>
     </row>
@@ -3997,12 +4051,12 @@
         <v>44019</v>
       </c>
       <c r="B107" s="73"/>
-      <c r="C107" s="79"/>
+      <c r="C107" s="84"/>
       <c r="D107" s="18"/>
       <c r="E107" s="19"/>
       <c r="F107" s="12"/>
       <c r="H107" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I107" s="63">
         <v>1</v>
@@ -4013,12 +4067,12 @@
         <v>44020</v>
       </c>
       <c r="B108" s="73"/>
-      <c r="C108" s="79"/>
+      <c r="C108" s="84"/>
       <c r="D108" s="18"/>
       <c r="E108" s="19"/>
       <c r="F108" s="12"/>
       <c r="H108" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I108" s="63"/>
     </row>
@@ -4027,12 +4081,12 @@
         <v>44021</v>
       </c>
       <c r="B109" s="73"/>
-      <c r="C109" s="80"/>
+      <c r="C109" s="85"/>
       <c r="D109" s="18"/>
       <c r="E109" s="19"/>
       <c r="F109" s="12"/>
       <c r="H109" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I109" s="63"/>
     </row>
@@ -4042,13 +4096,13 @@
       </c>
       <c r="B110" s="74"/>
       <c r="C110" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D110" s="18"/>
       <c r="E110" s="19"/>
       <c r="F110" s="12"/>
       <c r="H110" s="57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I110" s="63">
         <v>0.5</v>
@@ -4059,16 +4113,16 @@
         <v>44023</v>
       </c>
       <c r="B111" s="72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C111" s="81" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D111" s="18"/>
       <c r="E111" s="19"/>
       <c r="F111" s="12"/>
       <c r="H111" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I111" s="63"/>
     </row>
@@ -4077,12 +4131,12 @@
         <v>44024</v>
       </c>
       <c r="B112" s="73"/>
-      <c r="C112" s="83"/>
+      <c r="C112" s="86"/>
       <c r="D112" s="18"/>
       <c r="E112" s="19"/>
       <c r="F112" s="12"/>
       <c r="H112" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I112" s="63"/>
     </row>
@@ -4096,7 +4150,7 @@
       <c r="E113" s="19"/>
       <c r="F113" s="12"/>
       <c r="H113" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I113" s="63"/>
     </row>
@@ -4106,13 +4160,13 @@
       </c>
       <c r="B114" s="74"/>
       <c r="C114" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D114" s="18"/>
       <c r="E114" s="19"/>
       <c r="F114" s="12"/>
       <c r="H114" s="57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I114" s="63"/>
     </row>
@@ -4121,10 +4175,10 @@
         <v>44027</v>
       </c>
       <c r="B115" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="C115" s="78" t="s">
         <v>78</v>
-      </c>
-      <c r="C115" s="78" t="s">
-        <v>79</v>
       </c>
       <c r="D115" s="20" t="s">
         <v>23</v>
@@ -4134,7 +4188,7 @@
       </c>
       <c r="F115" s="12"/>
       <c r="H115" s="57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I115" s="63">
         <v>1</v>
@@ -4152,7 +4206,7 @@
       </c>
       <c r="F116" s="12"/>
       <c r="H116" s="57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I116" s="63">
         <v>1</v>
@@ -4170,7 +4224,7 @@
       </c>
       <c r="F117" s="12"/>
       <c r="H117" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I117" s="63"/>
     </row>
@@ -4184,7 +4238,7 @@
       <c r="E118" s="19"/>
       <c r="F118" s="12"/>
       <c r="H118" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I118" s="63"/>
     </row>
@@ -4198,7 +4252,7 @@
       <c r="E119" s="19"/>
       <c r="F119" s="12"/>
       <c r="H119" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I119" s="63"/>
     </row>
@@ -4208,13 +4262,13 @@
       </c>
       <c r="B120" s="73"/>
       <c r="C120" s="78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D120" s="18"/>
       <c r="E120" s="19"/>
       <c r="F120" s="12"/>
       <c r="H120" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I120" s="63"/>
     </row>
@@ -4227,8 +4281,12 @@
       <c r="D121" s="18"/>
       <c r="E121" s="19"/>
       <c r="F121" s="12"/>
-      <c r="H121" s="57"/>
-      <c r="I121" s="63"/>
+      <c r="H121" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="I121" s="63">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="122" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="40">
@@ -4239,8 +4297,12 @@
       <c r="D122" s="18"/>
       <c r="E122" s="19"/>
       <c r="F122" s="12"/>
-      <c r="H122" s="57"/>
-      <c r="I122" s="63"/>
+      <c r="H122" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="I122" s="63">
+        <v>1</v>
+      </c>
     </row>
     <row r="123" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="40">
@@ -4251,7 +4313,9 @@
       <c r="D123" s="18"/>
       <c r="E123" s="19"/>
       <c r="F123" s="12"/>
-      <c r="H123" s="57"/>
+      <c r="H123" s="57" t="s">
+        <v>84</v>
+      </c>
       <c r="I123" s="63"/>
     </row>
     <row r="124" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -4263,7 +4327,9 @@
       <c r="D124" s="18"/>
       <c r="E124" s="19"/>
       <c r="F124" s="12"/>
-      <c r="H124" s="57"/>
+      <c r="H124" s="57" t="s">
+        <v>84</v>
+      </c>
       <c r="I124" s="63"/>
     </row>
     <row r="125" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -4272,12 +4338,14 @@
       </c>
       <c r="B125" s="73"/>
       <c r="C125" s="81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D125" s="18"/>
       <c r="E125" s="19"/>
       <c r="F125" s="12"/>
-      <c r="H125" s="57"/>
+      <c r="H125" s="57" t="s">
+        <v>84</v>
+      </c>
       <c r="I125" s="63"/>
     </row>
     <row r="126" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -4285,11 +4353,13 @@
         <v>44038</v>
       </c>
       <c r="B126" s="73"/>
-      <c r="C126" s="83"/>
+      <c r="C126" s="86"/>
       <c r="D126" s="18"/>
       <c r="E126" s="19"/>
       <c r="F126" s="12"/>
-      <c r="H126" s="57"/>
+      <c r="H126" s="57" t="s">
+        <v>84</v>
+      </c>
       <c r="I126" s="63"/>
     </row>
     <row r="127" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -4297,11 +4367,13 @@
         <v>44039</v>
       </c>
       <c r="B127" s="73"/>
-      <c r="C127" s="83"/>
+      <c r="C127" s="86"/>
       <c r="D127" s="18"/>
       <c r="E127" s="19"/>
       <c r="F127" s="12"/>
-      <c r="H127" s="57"/>
+      <c r="H127" s="57" t="s">
+        <v>84</v>
+      </c>
       <c r="I127" s="63"/>
     </row>
     <row r="128" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -4313,8 +4385,12 @@
       <c r="D128" s="18"/>
       <c r="E128" s="19"/>
       <c r="F128" s="12"/>
-      <c r="H128" s="57"/>
-      <c r="I128" s="63"/>
+      <c r="H128" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="I128" s="63">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="129" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="40">
@@ -4322,36 +4398,44 @@
       </c>
       <c r="B129" s="74"/>
       <c r="C129" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D129" s="18"/>
       <c r="E129" s="19"/>
       <c r="F129" s="12"/>
-      <c r="H129" s="57"/>
-      <c r="I129" s="63"/>
+      <c r="H129" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="I129" s="63">
+        <v>1</v>
+      </c>
     </row>
     <row r="130" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="40">
         <v>44042</v>
       </c>
       <c r="B130" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="C130" s="78" t="s">
         <v>82</v>
-      </c>
-      <c r="C130" s="78" t="s">
-        <v>83</v>
       </c>
       <c r="D130" s="18"/>
       <c r="E130" s="19"/>
       <c r="F130" s="12"/>
-      <c r="H130" s="57"/>
-      <c r="I130" s="63"/>
+      <c r="H130" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="I130" s="63">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="131" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A131" s="43">
         <v>44043</v>
       </c>
-      <c r="B131" s="84"/>
-      <c r="C131" s="86"/>
+      <c r="B131" s="87"/>
+      <c r="C131" s="89"/>
       <c r="D131" s="24" t="s">
         <v>25</v>
       </c>
@@ -4359,24 +4443,32 @@
         <v>26</v>
       </c>
       <c r="F131" s="14"/>
-      <c r="H131" s="58"/>
-      <c r="I131" s="64"/>
+      <c r="H131" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="I131" s="64">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="132" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="42">
         <v>44044</v>
       </c>
-      <c r="B132" s="85" t="s">
-        <v>61</v>
-      </c>
-      <c r="C132" s="87" t="s">
-        <v>57</v>
+      <c r="B132" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="C132" s="90" t="s">
+        <v>56</v>
       </c>
       <c r="D132" s="49"/>
       <c r="E132" s="50"/>
       <c r="F132" s="11"/>
-      <c r="H132" s="59"/>
-      <c r="I132" s="65"/>
+      <c r="H132" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="I132" s="65">
+        <v>1</v>
+      </c>
     </row>
     <row r="133" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="40">
@@ -4387,7 +4479,9 @@
       <c r="D133" s="18"/>
       <c r="E133" s="19"/>
       <c r="F133" s="12"/>
-      <c r="H133" s="57"/>
+      <c r="H133" s="57" t="s">
+        <v>84</v>
+      </c>
       <c r="I133" s="63"/>
     </row>
     <row r="134" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -4401,7 +4495,9 @@
         <v>26</v>
       </c>
       <c r="F134" s="12"/>
-      <c r="H134" s="57"/>
+      <c r="H134" s="57" t="s">
+        <v>84</v>
+      </c>
       <c r="I134" s="63"/>
     </row>
     <row r="135" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -4415,7 +4511,9 @@
         <v>26</v>
       </c>
       <c r="F135" s="12"/>
-      <c r="H135" s="57"/>
+      <c r="H135" s="57" t="s">
+        <v>84</v>
+      </c>
       <c r="I135" s="63"/>
     </row>
     <row r="136" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -4427,7 +4525,9 @@
       <c r="D136" s="18"/>
       <c r="E136" s="19"/>
       <c r="F136" s="12"/>
-      <c r="H136" s="57"/>
+      <c r="H136" s="57" t="s">
+        <v>116</v>
+      </c>
       <c r="I136" s="63"/>
     </row>
     <row r="137" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -4436,12 +4536,14 @@
       </c>
       <c r="B137" s="73"/>
       <c r="C137" s="78" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D137" s="18"/>
       <c r="E137" s="19"/>
       <c r="F137" s="12"/>
-      <c r="H137" s="57"/>
+      <c r="H137" s="57" t="s">
+        <v>116</v>
+      </c>
       <c r="I137" s="63"/>
     </row>
     <row r="138" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -4453,7 +4555,9 @@
       <c r="D138" s="18"/>
       <c r="E138" s="19"/>
       <c r="F138" s="12"/>
-      <c r="H138" s="57"/>
+      <c r="H138" s="57" t="s">
+        <v>116</v>
+      </c>
       <c r="I138" s="63"/>
     </row>
     <row r="139" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -4465,7 +4569,9 @@
       <c r="D139" s="18"/>
       <c r="E139" s="19"/>
       <c r="F139" s="12"/>
-      <c r="H139" s="57"/>
+      <c r="H139" s="57" t="s">
+        <v>116</v>
+      </c>
       <c r="I139" s="63"/>
     </row>
     <row r="140" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -4477,7 +4583,9 @@
       <c r="D140" s="18"/>
       <c r="E140" s="19"/>
       <c r="F140" s="12"/>
-      <c r="H140" s="57"/>
+      <c r="H140" s="57" t="s">
+        <v>116</v>
+      </c>
       <c r="I140" s="63"/>
     </row>
     <row r="141" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -4489,7 +4597,9 @@
       <c r="D141" s="18"/>
       <c r="E141" s="19"/>
       <c r="F141" s="12"/>
-      <c r="H141" s="57"/>
+      <c r="H141" s="57" t="s">
+        <v>116</v>
+      </c>
       <c r="I141" s="63"/>
     </row>
     <row r="142" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -4501,7 +4611,9 @@
       <c r="D142" s="18"/>
       <c r="E142" s="19"/>
       <c r="F142" s="12"/>
-      <c r="H142" s="57"/>
+      <c r="H142" s="57" t="s">
+        <v>116</v>
+      </c>
       <c r="I142" s="63"/>
     </row>
     <row r="143" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -4513,7 +4625,9 @@
       <c r="D143" s="18"/>
       <c r="E143" s="19"/>
       <c r="F143" s="12"/>
-      <c r="H143" s="57"/>
+      <c r="H143" s="57" t="s">
+        <v>116</v>
+      </c>
       <c r="I143" s="63"/>
     </row>
     <row r="144" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -4522,12 +4636,14 @@
       </c>
       <c r="B144" s="73"/>
       <c r="C144" s="78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D144" s="18"/>
       <c r="E144" s="19"/>
       <c r="F144" s="12"/>
-      <c r="H144" s="57"/>
+      <c r="H144" s="57" t="s">
+        <v>116</v>
+      </c>
       <c r="I144" s="63"/>
     </row>
     <row r="145" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -4539,7 +4655,9 @@
       <c r="D145" s="18"/>
       <c r="E145" s="19"/>
       <c r="F145" s="12"/>
-      <c r="H145" s="57"/>
+      <c r="H145" s="57" t="s">
+        <v>116</v>
+      </c>
       <c r="I145" s="63"/>
     </row>
     <row r="146" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -4551,7 +4669,9 @@
       <c r="D146" s="18"/>
       <c r="E146" s="19"/>
       <c r="F146" s="12"/>
-      <c r="H146" s="57"/>
+      <c r="H146" s="57" t="s">
+        <v>116</v>
+      </c>
       <c r="I146" s="63"/>
     </row>
     <row r="147" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -4563,7 +4683,9 @@
       <c r="D147" s="18"/>
       <c r="E147" s="19"/>
       <c r="F147" s="12"/>
-      <c r="H147" s="57"/>
+      <c r="H147" s="57" t="s">
+        <v>116</v>
+      </c>
       <c r="I147" s="63"/>
     </row>
     <row r="148" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -4579,7 +4701,9 @@
         <v>28</v>
       </c>
       <c r="F148" s="12"/>
-      <c r="H148" s="57"/>
+      <c r="H148" s="57" t="s">
+        <v>116</v>
+      </c>
       <c r="I148" s="63"/>
     </row>
     <row r="149" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -4593,7 +4717,9 @@
         <v>28</v>
       </c>
       <c r="F149" s="12"/>
-      <c r="H149" s="57"/>
+      <c r="H149" s="57" t="s">
+        <v>116</v>
+      </c>
       <c r="I149" s="63"/>
     </row>
     <row r="150" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -4607,7 +4733,9 @@
         <v>28</v>
       </c>
       <c r="F150" s="12"/>
-      <c r="H150" s="57"/>
+      <c r="H150" s="57" t="s">
+        <v>116</v>
+      </c>
       <c r="I150" s="63"/>
     </row>
     <row r="151" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -4616,12 +4744,14 @@
       </c>
       <c r="B151" s="73"/>
       <c r="C151" s="78" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D151" s="18"/>
       <c r="E151" s="19"/>
       <c r="F151" s="12"/>
-      <c r="H151" s="57"/>
+      <c r="H151" s="57" t="s">
+        <v>116</v>
+      </c>
       <c r="I151" s="63"/>
     </row>
     <row r="152" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -4633,7 +4763,9 @@
       <c r="D152" s="18"/>
       <c r="E152" s="19"/>
       <c r="F152" s="12"/>
-      <c r="H152" s="57"/>
+      <c r="H152" s="57" t="s">
+        <v>116</v>
+      </c>
       <c r="I152" s="63"/>
     </row>
     <row r="153" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -4645,7 +4777,9 @@
       <c r="D153" s="18"/>
       <c r="E153" s="19"/>
       <c r="F153" s="12"/>
-      <c r="H153" s="57"/>
+      <c r="H153" s="57" t="s">
+        <v>116</v>
+      </c>
       <c r="I153" s="63"/>
     </row>
     <row r="154" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -4657,7 +4791,9 @@
       <c r="D154" s="18"/>
       <c r="E154" s="19"/>
       <c r="F154" s="12"/>
-      <c r="H154" s="57"/>
+      <c r="H154" s="57" t="s">
+        <v>116</v>
+      </c>
       <c r="I154" s="63"/>
     </row>
     <row r="155" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -4669,7 +4805,9 @@
       <c r="D155" s="18"/>
       <c r="E155" s="19"/>
       <c r="F155" s="12"/>
-      <c r="H155" s="57"/>
+      <c r="H155" s="57" t="s">
+        <v>116</v>
+      </c>
       <c r="I155" s="63"/>
     </row>
     <row r="156" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -4690,7 +4828,7 @@
       </c>
       <c r="B157" s="73"/>
       <c r="C157" s="78" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D157" s="18"/>
       <c r="E157" s="19"/>
@@ -4751,10 +4889,10 @@
         <v>44074</v>
       </c>
       <c r="B162" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D162" s="24" t="s">
         <v>29</v>
